--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>132.555463953058</v>
+        <v>1167.787440563708</v>
       </c>
       <c r="R2">
-        <v>530.221855812232</v>
+        <v>4671.14976225483</v>
       </c>
       <c r="S2">
-        <v>0.0003108524338566271</v>
+        <v>0.001988795097080627</v>
       </c>
       <c r="T2">
-        <v>0.000149469031075632</v>
+        <v>0.0009737768709611765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H3">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I3">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J3">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>9171.317164189115</v>
+        <v>15054.25766813579</v>
       </c>
       <c r="R3">
-        <v>55027.90298513469</v>
+        <v>90325.54600881474</v>
       </c>
       <c r="S3">
-        <v>0.02150742170212499</v>
+        <v>0.02563808515197295</v>
       </c>
       <c r="T3">
-        <v>0.01551231291420902</v>
+        <v>0.01882982392708928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H4">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I4">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J4">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>12234.66631651247</v>
+        <v>16177.8257977882</v>
       </c>
       <c r="R4">
-        <v>73407.99789907481</v>
+        <v>97066.9547867292</v>
       </c>
       <c r="S4">
-        <v>0.02869120357994762</v>
+        <v>0.02755157275243055</v>
       </c>
       <c r="T4">
-        <v>0.02069364398864453</v>
+        <v>0.02023517984153098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H5">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I5">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J5">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>1967.167850892713</v>
+        <v>3499.056450265532</v>
       </c>
       <c r="R5">
-        <v>7868.671403570854</v>
+        <v>13996.22580106213</v>
       </c>
       <c r="S5">
-        <v>0.004613155097635668</v>
+        <v>0.005959052196465884</v>
       </c>
       <c r="T5">
-        <v>0.002218170898939273</v>
+        <v>0.002917740098156339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H6">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I6">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J6">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>410.5721897571193</v>
+        <v>5613.521809075375</v>
       </c>
       <c r="R6">
-        <v>2463.433138542716</v>
+        <v>33681.13085445225</v>
       </c>
       <c r="S6">
-        <v>0.0009628223586848316</v>
+        <v>0.009560082822825347</v>
       </c>
       <c r="T6">
-        <v>0.0006944394319120189</v>
+        <v>0.007021377580077937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H7">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I7">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J7">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>9428.043652151251</v>
+        <v>21718.44073471046</v>
       </c>
       <c r="R7">
-        <v>56568.26191290751</v>
+        <v>130310.6444082628</v>
       </c>
       <c r="S7">
-        <v>0.02210946443381317</v>
+        <v>0.03698749185774615</v>
       </c>
       <c r="T7">
-        <v>0.01594653861411007</v>
+        <v>0.02716536570721282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J8">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>559.2300018589007</v>
+        <v>3001.435369740847</v>
       </c>
       <c r="R8">
-        <v>3355.380011153404</v>
+        <v>18008.61221844508</v>
       </c>
       <c r="S8">
-        <v>0.001311435998029072</v>
+        <v>0.005111580875252041</v>
       </c>
       <c r="T8">
-        <v>0.0009458783972406602</v>
+        <v>0.003754187073626518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J9">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>38692.29952372496</v>
@@ -1013,10 +1013,10 @@
         <v>348230.6957135246</v>
       </c>
       <c r="S9">
-        <v>0.09073632364727614</v>
+        <v>0.06589474498065667</v>
       </c>
       <c r="T9">
-        <v>0.09816589812081634</v>
+        <v>0.07259433212453066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J10">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>51616.07272069342</v>
+        <v>41580.08287154419</v>
       </c>
       <c r="R10">
-        <v>464544.6544862408</v>
+        <v>374220.7458438977</v>
       </c>
       <c r="S10">
-        <v>0.1210435341769859</v>
+        <v>0.07081277129613207</v>
       </c>
       <c r="T10">
-        <v>0.1309546912038491</v>
+        <v>0.07801237928212426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J11">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>8299.162087359002</v>
+        <v>8993.239202399083</v>
       </c>
       <c r="R11">
-        <v>49794.97252415401</v>
+        <v>53959.43521439451</v>
       </c>
       <c r="S11">
-        <v>0.01946215310098257</v>
+        <v>0.0153158951803514</v>
       </c>
       <c r="T11">
-        <v>0.0140371548513812</v>
+        <v>0.01124871876438007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J12">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>1732.1374735816</v>
+        <v>14427.81650266541</v>
       </c>
       <c r="R12">
-        <v>15589.2372622344</v>
+        <v>129850.3485239887</v>
       </c>
       <c r="S12">
-        <v>0.004061991361048591</v>
+        <v>0.0245712273701359</v>
       </c>
       <c r="T12">
-        <v>0.004394590987247944</v>
+        <v>0.02706940957034762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J13">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>39775.38693527924</v>
+        <v>55820.51487496212</v>
       </c>
       <c r="R13">
-        <v>357978.4824175132</v>
+        <v>502384.6338746591</v>
       </c>
       <c r="S13">
-        <v>0.09327624428065229</v>
+        <v>0.09506487434584165</v>
       </c>
       <c r="T13">
-        <v>0.1009137898152188</v>
+        <v>0.1047302188310256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H14">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I14">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J14">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>442.6288940265306</v>
+        <v>2284.605010843427</v>
       </c>
       <c r="R14">
-        <v>2655.773364159184</v>
+        <v>13707.63006506056</v>
       </c>
       <c r="S14">
-        <v>0.001037997717333929</v>
+        <v>0.0038907861880566</v>
       </c>
       <c r="T14">
-        <v>0.0007486599564804041</v>
+        <v>0.00285757763985813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H15">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I15">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J15">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>30624.84074280904</v>
+        <v>29451.44921797507</v>
       </c>
       <c r="R15">
-        <v>275623.5666852813</v>
+        <v>265063.0429617756</v>
       </c>
       <c r="S15">
-        <v>0.07181753205394117</v>
+        <v>0.05015715683528323</v>
       </c>
       <c r="T15">
-        <v>0.07769801829641673</v>
+        <v>0.05525668705132059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H16">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I16">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J16">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>40853.96904030549</v>
+        <v>31649.54562650366</v>
       </c>
       <c r="R16">
-        <v>367685.7213627494</v>
+        <v>284845.9106385329</v>
       </c>
       <c r="S16">
-        <v>0.09580559963472769</v>
+        <v>0.05390061494105116</v>
       </c>
       <c r="T16">
-        <v>0.1036502511354363</v>
+        <v>0.05938074642971498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H17">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I17">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J17">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>6568.762269305925</v>
+        <v>6845.39122602813</v>
       </c>
       <c r="R17">
-        <v>39412.57361583554</v>
+        <v>41072.34735616878</v>
       </c>
       <c r="S17">
-        <v>0.01540423667154477</v>
+        <v>0.01165801243876349</v>
       </c>
       <c r="T17">
-        <v>0.01111036658708035</v>
+        <v>0.008562196445659299</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H18">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I18">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J18">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>1370.981692120977</v>
+        <v>10982.03286661638</v>
       </c>
       <c r="R18">
-        <v>12338.83522908879</v>
+        <v>98838.29579954744</v>
       </c>
       <c r="S18">
-        <v>0.0032150541596656</v>
+        <v>0.01870290119798</v>
       </c>
       <c r="T18">
-        <v>0.003478305781017993</v>
+        <v>0.02060444458290264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H19">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I19">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J19">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>31482.10122868563</v>
+        <v>42488.94688084177</v>
       </c>
       <c r="R19">
-        <v>283338.9110581707</v>
+        <v>382400.5219275759</v>
       </c>
       <c r="S19">
-        <v>0.07382787173015566</v>
+        <v>0.07236060801951003</v>
       </c>
       <c r="T19">
-        <v>0.07987296645290878</v>
+        <v>0.07971758617236155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H20">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I20">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J20">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>151.556473668768</v>
+        <v>1089.80661634809</v>
       </c>
       <c r="R20">
-        <v>606.225894675072</v>
+        <v>4359.22646539236</v>
       </c>
       <c r="S20">
-        <v>0.000355411216570809</v>
+        <v>0.001855990208554456</v>
       </c>
       <c r="T20">
-        <v>0.0001708944965145489</v>
+        <v>0.000908751404543245</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H21">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I21">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J21">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>10485.9690189352</v>
+        <v>14048.98617767616</v>
       </c>
       <c r="R21">
-        <v>62915.8141136112</v>
+        <v>84293.91706605699</v>
       </c>
       <c r="S21">
-        <v>0.02459037819848389</v>
+        <v>0.02392606210564189</v>
       </c>
       <c r="T21">
-        <v>0.01773590747309042</v>
+        <v>0.01757243312233753</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H22">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I22">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J22">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>13988.4304135613</v>
+        <v>15097.5262964344</v>
       </c>
       <c r="R22">
-        <v>83930.58248136779</v>
+        <v>90585.1577786064</v>
       </c>
       <c r="S22">
-        <v>0.03280391098347689</v>
+        <v>0.02571177359289003</v>
       </c>
       <c r="T22">
-        <v>0.02365995045957901</v>
+        <v>0.0188839442079022</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H23">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I23">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J23">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>2249.149251979896</v>
+        <v>3265.40150888599</v>
       </c>
       <c r="R23">
-        <v>8996.597007919585</v>
+        <v>13061.60603554396</v>
       </c>
       <c r="S23">
-        <v>0.005274422481236646</v>
+        <v>0.005561127209706322</v>
       </c>
       <c r="T23">
-        <v>0.002536132041731367</v>
+        <v>0.002722903461112737</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H24">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I24">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J24">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>469.4251855818561</v>
+        <v>5238.670151814243</v>
       </c>
       <c r="R24">
-        <v>2816.551113491136</v>
+        <v>31432.02091088546</v>
       </c>
       <c r="S24">
-        <v>0.001100837016446144</v>
+        <v>0.008921693410336357</v>
       </c>
       <c r="T24">
-        <v>0.0007939830493475491</v>
+        <v>0.006552514162126435</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H25">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I25">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J25">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>10779.49566847933</v>
+        <v>20268.15804597627</v>
       </c>
       <c r="R25">
-        <v>64676.97401087598</v>
+        <v>121608.9482758576</v>
       </c>
       <c r="S25">
-        <v>0.02527872004944589</v>
+        <v>0.03451759451123659</v>
       </c>
       <c r="T25">
-        <v>0.01823237675387889</v>
+        <v>0.0253513561243177</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H26">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I26">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J26">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>134.199246025406</v>
+        <v>1111.408080821495</v>
       </c>
       <c r="R26">
-        <v>805.195476152436</v>
+        <v>6668.448484928971</v>
       </c>
       <c r="S26">
-        <v>0.0003147072252223019</v>
+        <v>0.00189277848452164</v>
       </c>
       <c r="T26">
-        <v>0.0002269838301226251</v>
+        <v>0.001390146158937407</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H27">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I27">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J27">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>9285.048022840481</v>
+        <v>14327.45638629114</v>
       </c>
       <c r="R27">
-        <v>83565.43220556434</v>
+        <v>128947.1074766203</v>
       </c>
       <c r="S27">
-        <v>0.02177412903475445</v>
+        <v>0.02440030952973573</v>
       </c>
       <c r="T27">
-        <v>0.02355701494810761</v>
+        <v>0.02688111433564173</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H28">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I28">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J28">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>12386.38488436694</v>
+        <v>15396.78001084253</v>
       </c>
       <c r="R28">
-        <v>111477.4639593025</v>
+        <v>138571.0200975828</v>
       </c>
       <c r="S28">
-        <v>0.02904699491945443</v>
+        <v>0.02622141627213547</v>
       </c>
       <c r="T28">
-        <v>0.03142538984787965</v>
+        <v>0.02888737489148419</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H29">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I29">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J29">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>1991.562131974494</v>
+        <v>3330.126253283278</v>
       </c>
       <c r="R29">
-        <v>11949.37279184697</v>
+        <v>19980.75751969967</v>
       </c>
       <c r="S29">
-        <v>0.0046703615033191</v>
+        <v>0.00567135639170111</v>
       </c>
       <c r="T29">
-        <v>0.003368516694625626</v>
+        <v>0.004165312723258753</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H30">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I30">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J30">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>415.6635770511687</v>
+        <v>5342.507791882449</v>
       </c>
       <c r="R30">
-        <v>3740.972193460518</v>
+        <v>48082.57012694205</v>
       </c>
       <c r="S30">
-        <v>0.0009747620410250663</v>
+        <v>0.009098533631670118</v>
       </c>
       <c r="T30">
-        <v>0.001054576462490148</v>
+        <v>0.01002359099344815</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H31">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I31">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J31">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>9544.958101926093</v>
+        <v>20669.90078583836</v>
       </c>
       <c r="R31">
-        <v>85904.62291733484</v>
+        <v>186029.1070725452</v>
       </c>
       <c r="S31">
-        <v>0.02238363752469676</v>
+        <v>0.0352017806598218</v>
       </c>
       <c r="T31">
-        <v>0.0242164305594348</v>
+        <v>0.03878078225121188</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H32">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I32">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J32">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>275.0227107516326</v>
+        <v>2189.425832182588</v>
       </c>
       <c r="R32">
-        <v>1650.136264509796</v>
+        <v>13136.55499309553</v>
       </c>
       <c r="S32">
-        <v>0.0006449487365776742</v>
+        <v>0.003728691720099774</v>
       </c>
       <c r="T32">
-        <v>0.0004651718255204975</v>
+        <v>0.002738527785975132</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H33">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I33">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J33">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>19028.41597349392</v>
+        <v>28224.46917825984</v>
       </c>
       <c r="R33">
-        <v>171255.7437614453</v>
+        <v>254020.2226043386</v>
       </c>
       <c r="S33">
-        <v>0.0446230524295219</v>
+        <v>0.04806755405104408</v>
       </c>
       <c r="T33">
-        <v>0.04827682941690125</v>
+        <v>0.05295463218227253</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H34">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I34">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J34">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>25384.17500994554</v>
+        <v>30330.99045244875</v>
       </c>
       <c r="R34">
-        <v>228457.5750895099</v>
+        <v>272978.9140720387</v>
       </c>
       <c r="S34">
-        <v>0.05952778065850606</v>
+        <v>0.05165505554016837</v>
       </c>
       <c r="T34">
-        <v>0.06440197063964505</v>
+        <v>0.05690687867287184</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H35">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I35">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J35">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>4081.429906560231</v>
+        <v>6560.204635167534</v>
       </c>
       <c r="R35">
-        <v>24488.57943936139</v>
+        <v>39361.22781100521</v>
       </c>
       <c r="S35">
-        <v>0.009571257058998096</v>
+        <v>0.01117232671038907</v>
       </c>
       <c r="T35">
-        <v>0.006903306985738833</v>
+        <v>0.008205485845199856</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H36">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I36">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J36">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>851.8447540285775</v>
+        <v>10524.50919696243</v>
       </c>
       <c r="R36">
-        <v>7666.602786257198</v>
+        <v>94720.5827726619</v>
       </c>
       <c r="S36">
-        <v>0.001997639381742547</v>
+        <v>0.01792371759024495</v>
       </c>
       <c r="T36">
-        <v>0.002161207950110245</v>
+        <v>0.01974604056870526</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H37">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I37">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J37">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>19561.06557189974</v>
+        <v>40718.8102282965</v>
       </c>
       <c r="R37">
-        <v>176049.5901470977</v>
+        <v>366469.2920546685</v>
       </c>
       <c r="S37">
-        <v>0.04587215540211485</v>
+        <v>0.06934598483256654</v>
       </c>
       <c r="T37">
-        <v>0.04962821010129655</v>
+        <v>0.07639646311577292</v>
       </c>
     </row>
   </sheetData>
